--- a/ISRaD_data_files/Gaudinski_2000.xlsx
+++ b/ISRaD_data_files/Gaudinski_2000.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/clawrence_usgs_gov/Documents/USGS_RADIS/R_codeBase/R_ISRaD/ISRaD_working/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BA17FDBC-06BF-C042-9FA7-B2A2DA36A16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69FBD0A-D2BD-EA46-A89E-26420DCD978A}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2580" windowWidth="25440" windowHeight="15930"/>
+    <workbookView xWindow="6700" yWindow="500" windowWidth="34860" windowHeight="21940" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1482" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="916">
   <si>
     <t>entry_name</t>
   </si>
@@ -1752,12 +1758,6 @@
     <t>(frc_name or layer_name)</t>
   </si>
   <si>
-    <t>(f_property)</t>
-  </si>
-  <si>
-    <t>(f_scheme)</t>
-  </si>
-  <si>
     <t>(f_scheme_units)</t>
   </si>
   <si>
@@ -2753,13 +2753,43 @@
   </si>
   <si>
     <t>Interstitial name</t>
+  </si>
+  <si>
+    <t>frc_aba</t>
+  </si>
+  <si>
+    <t>frc_aggregate_dis</t>
+  </si>
+  <si>
+    <t>Fraction Acid-Base-Acid Pretreatment</t>
+  </si>
+  <si>
+    <t>Fraction Aggregate Dispersion</t>
+  </si>
+  <si>
+    <t>(yes/blank)</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>physical (other)</t>
+  </si>
+  <si>
+    <t>particle size</t>
+  </si>
+  <si>
+    <t>silt+clay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2782,6 +2812,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2838,11 +2880,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2886,6 +2930,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3169,21 +3216,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="57" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3233,7 +3280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3280,7 +3327,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3318,7 +3365,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -3329,7 +3376,7 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -3347,13 +3394,13 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="K4" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="P4" s="1">
         <v>20180914</v>
@@ -3371,22 +3418,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3456,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3432,7 +3479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3449,12 +3496,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C4" s="1">
         <v>42.54</v>
@@ -3463,7 +3510,7 @@
         <v>-72.180000000000007</v>
       </c>
       <c r="E4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F4" t="s">
         <v>66</v>
@@ -3481,27 +3528,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3611,7 +3658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +3768,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3816,15 +3863,15 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H4" t="s">
         <v>154</v>
@@ -3836,31 +3883,31 @@
         <v>156</v>
       </c>
       <c r="N4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="O4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="P4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="T4" t="s">
         <v>157</v>
       </c>
       <c r="U4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="Y4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Z4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AA4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AG4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -3875,26 +3922,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4007,7 +4054,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4117,7 +4164,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -4209,24 +4256,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CT9"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D4" activeCellId="3" sqref="D9 D8 D6 D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4522,7 +4569,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -4818,7 +4865,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5057,18 +5104,18 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E4" s="1">
         <v>1996</v>
@@ -5083,13 +5130,13 @@
         <v>431</v>
       </c>
       <c r="L4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P4" s="1">
         <v>0.06</v>
       </c>
       <c r="R4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S4" s="1">
         <v>65</v>
@@ -5107,7 +5154,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="AW4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AY4">
         <v>1996</v>
@@ -5116,18 +5163,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E5" s="1">
         <v>1996</v>
@@ -5139,16 +5186,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="L5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P5" s="1">
         <v>0.1</v>
       </c>
       <c r="R5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S5" s="1">
         <v>65</v>
@@ -5166,7 +5213,7 @@
         <v>0.16400000000000001</v>
       </c>
       <c r="AW5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AY5">
         <v>1996</v>
@@ -5175,18 +5222,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D6" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E6" s="1">
         <v>1996</v>
@@ -5201,13 +5248,13 @@
         <v>432</v>
       </c>
       <c r="L6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P6" s="1">
         <v>0.35</v>
       </c>
       <c r="R6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S6" s="1">
         <v>65</v>
@@ -5225,7 +5272,7 @@
         <v>0.24</v>
       </c>
       <c r="AW6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AY6">
         <v>1996</v>
@@ -5234,18 +5281,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E7" s="1">
         <v>1996</v>
@@ -5260,13 +5307,13 @@
         <v>433</v>
       </c>
       <c r="L7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P7" s="1">
         <v>0.54</v>
       </c>
       <c r="R7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S7" s="1">
         <v>65</v>
@@ -5284,7 +5331,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="AW7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AY7">
         <v>1996</v>
@@ -5293,18 +5340,18 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D8" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E8" s="1">
         <v>1996</v>
@@ -5319,13 +5366,13 @@
         <v>434</v>
       </c>
       <c r="L8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P8" s="1">
         <v>0.85</v>
       </c>
       <c r="R8" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S8" s="1">
         <v>65</v>
@@ -5343,7 +5390,7 @@
         <v>0.1245</v>
       </c>
       <c r="AW8" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AY8">
         <v>1996</v>
@@ -5352,18 +5399,18 @@
         <v>-118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E9" s="1">
         <v>1996</v>
@@ -5378,13 +5425,13 @@
         <v>435</v>
       </c>
       <c r="L9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="P9" s="1">
         <v>0.93</v>
       </c>
       <c r="R9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="S9" s="1">
         <v>65</v>
@@ -5402,7 +5449,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="AW9" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="AY9">
         <v>1996</v>
@@ -5423,23 +5470,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5497,7 @@
         <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E1" t="s">
         <v>436</v>
@@ -5528,7 +5575,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5539,7 +5586,7 @@
         <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E2" t="s">
         <v>194</v>
@@ -5614,7 +5661,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -5661,18 +5708,18 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D4" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E4">
         <v>1996</v>
@@ -5681,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="U4" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="W4">
         <v>1996</v>
@@ -5696,18 +5743,18 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E5">
         <v>1996</v>
@@ -5716,13 +5763,13 @@
         <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="U5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="W5">
         <v>1996</v>
@@ -5731,18 +5778,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D6" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E6">
         <v>1996</v>
@@ -5751,13 +5798,13 @@
         <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="U6" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="W6">
         <v>1996</v>
@@ -5766,18 +5813,18 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E7">
         <v>1996</v>
@@ -5786,13 +5833,13 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="U7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="W7">
         <v>1996</v>
@@ -5813,28 +5860,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BU20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BW20"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" customWidth="1"/>
+    <col min="7" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5854,208 +5900,214 @@
         <v>480</v>
       </c>
       <c r="G1" t="s">
+        <v>906</v>
+      </c>
+      <c r="H1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I1" t="s">
+        <v>482</v>
+      </c>
+      <c r="J1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K1" t="s">
         <v>481</v>
       </c>
-      <c r="H1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>483</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>484</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>485</v>
       </c>
-      <c r="L1" t="s">
-        <v>486</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>487</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>488</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>489</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>490</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>491</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>492</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>493</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>494</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>495</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>496</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>497</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>498</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>499</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>500</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>501</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>502</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>503</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>504</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>505</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>506</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>507</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>508</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>882</v>
+      </c>
+      <c r="AM1" t="s">
         <v>883</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>884</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>885</v>
-      </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>509</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>510</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>511</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>512</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>513</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>514</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>515</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>516</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>517</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AW1" t="s">
         <v>518</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AX1" t="s">
         <v>519</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AY1" t="s">
         <v>520</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AZ1" t="s">
         <v>521</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BA1" t="s">
         <v>522</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BB1" t="s">
         <v>523</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BC1" t="s">
         <v>524</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BD1" t="s">
         <v>525</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BE1" t="s">
         <v>526</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BF1" t="s">
         <v>527</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BG1" t="s">
         <v>528</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BH1" t="s">
         <v>529</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BI1" t="s">
         <v>530</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BJ1" t="s">
         <v>531</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BK1" t="s">
         <v>532</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BL1" t="s">
         <v>533</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BM1" t="s">
         <v>534</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BN1" t="s">
         <v>535</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BO1" t="s">
         <v>536</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BP1" t="s">
         <v>537</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BQ1" t="s">
         <v>538</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BR1" t="s">
         <v>539</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BS1" t="s">
         <v>540</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BT1" t="s">
         <v>541</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BU1" t="s">
         <v>542</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
         <v>543</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BW1" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6075,205 +6127,211 @@
         <v>546</v>
       </c>
       <c r="G2" t="s">
+        <v>908</v>
+      </c>
+      <c r="H2" t="s">
+        <v>909</v>
+      </c>
+      <c r="I2" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" t="s">
+        <v>552</v>
+      </c>
+      <c r="K2" t="s">
         <v>547</v>
       </c>
-      <c r="H2" t="s">
-        <v>548</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>549</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>550</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>551</v>
       </c>
-      <c r="L2" t="s">
-        <v>552</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>553</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>554</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>555</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>556</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>194</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>195</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>196</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>557</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>558</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>559</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>560</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>561</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>562</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>563</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>564</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE2" t="s">
         <v>215</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>216</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>217</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>565</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>566</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>567</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>568</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>569</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AM2" t="s">
         <v>570</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AN2" t="s">
         <v>379</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AO2" t="s">
         <v>380</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AP2" t="s">
         <v>381</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AQ2" t="s">
         <v>385</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AR2" t="s">
         <v>386</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AS2" t="s">
         <v>387</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AT2" t="s">
         <v>388</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AU2" t="s">
         <v>571</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AV2" t="s">
         <v>390</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AW2" t="s">
         <v>391</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AX2" t="s">
         <v>392</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" t="s">
         <v>393</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AZ2" t="s">
         <v>394</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BA2" t="s">
         <v>395</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" t="s">
         <v>396</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" t="s">
         <v>397</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" t="s">
         <v>398</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" t="s">
         <v>399</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" t="s">
         <v>400</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" t="s">
         <v>401</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BH2" t="s">
         <v>402</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BI2" t="s">
         <v>404</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BJ2" t="s">
         <v>405</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BK2" t="s">
         <v>406</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BL2" t="s">
         <v>572</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BM2" t="s">
         <v>408</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BN2" t="s">
         <v>409</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BO2" t="s">
         <v>410</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BP2" t="s">
         <v>411</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BQ2" t="s">
         <v>412</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BR2" t="s">
         <v>413</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BS2" t="s">
         <v>414</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BT2" t="s">
         <v>415</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BU2" t="s">
         <v>416</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BV2" t="s">
         <v>417</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BW2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -6281,37 +6339,28 @@
         <v>573</v>
       </c>
       <c r="G3" t="s">
+        <v>910</v>
+      </c>
+      <c r="L3" t="s">
         <v>574</v>
       </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>575</v>
       </c>
-      <c r="I3" t="s">
-        <v>576</v>
-      </c>
-      <c r="M3" t="s">
-        <v>577</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>135</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>141</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>35</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>36</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>37</v>
-      </c>
-      <c r="U3" t="s">
-        <v>141</v>
-      </c>
-      <c r="V3" t="s">
-        <v>141</v>
       </c>
       <c r="W3" t="s">
         <v>141</v>
@@ -6322,83 +6371,83 @@
       <c r="Y3" t="s">
         <v>141</v>
       </c>
+      <c r="Z3" t="s">
+        <v>141</v>
+      </c>
       <c r="AA3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC3" t="s">
         <v>233</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>233</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>235</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>233</v>
       </c>
       <c r="AH3" t="s">
         <v>233</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AI3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AN3" t="s">
         <v>427</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AO3" t="s">
         <v>428</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AP3" t="s">
         <v>428</v>
       </c>
-      <c r="AO3" t="s">
-        <v>578</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>578</v>
-      </c>
       <c r="AQ3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AR3" t="s">
-        <v>578</v>
+        <v>576</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>576</v>
       </c>
       <c r="AT3" t="s">
-        <v>578</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AV3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="AW3" t="s">
-        <v>578</v>
+        <v>576</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>576</v>
       </c>
       <c r="AY3" t="s">
-        <v>578</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="BA3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="BB3" t="s">
-        <v>578</v>
+        <v>576</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>576</v>
       </c>
       <c r="BD3" t="s">
-        <v>578</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="BF3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="BG3" t="s">
-        <v>430</v>
+        <v>576</v>
       </c>
       <c r="BH3" t="s">
-        <v>430</v>
+        <v>576</v>
       </c>
       <c r="BI3" t="s">
         <v>430</v>
@@ -6439,753 +6488,810 @@
       <c r="BU3" t="s">
         <v>430</v>
       </c>
+      <c r="BV3" t="s">
+        <v>430</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>430</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C4" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E4" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F4" t="s">
-        <v>877</v>
-      </c>
-      <c r="G4" t="s">
-        <v>847</v>
+        <v>876</v>
       </c>
       <c r="H4" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="I4" t="s">
-        <v>831</v>
-      </c>
-      <c r="J4">
+        <v>912</v>
+      </c>
+      <c r="J4" t="s">
+        <v>704</v>
+      </c>
+      <c r="K4" t="s">
+        <v>705</v>
+      </c>
+      <c r="L4" t="s">
+        <v>706</v>
+      </c>
+      <c r="M4" s="1">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="N4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG4" s="1">
         <v>1996</v>
       </c>
-      <c r="AF4" s="3">
-        <v>188</v>
+      <c r="AH4" s="3">
+        <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D5" t="s">
         <v>877</v>
       </c>
       <c r="E5" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="F5" t="s">
         <v>877</v>
       </c>
-      <c r="G5" t="s">
-        <v>847</v>
-      </c>
       <c r="H5" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="I5" t="s">
-        <v>831</v>
-      </c>
-      <c r="J5">
+        <v>912</v>
+      </c>
+      <c r="J5" t="s">
+        <v>704</v>
+      </c>
+      <c r="K5" t="s">
+        <v>705</v>
+      </c>
+      <c r="L5" t="s">
+        <v>706</v>
+      </c>
+      <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE5" s="1">
+      <c r="N5" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG5" s="1">
         <v>1996</v>
       </c>
-      <c r="AF5" s="3">
-        <v>153</v>
+      <c r="AH5" s="3">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C6" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D6" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="E6" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>877</v>
-      </c>
-      <c r="G6" t="s">
-        <v>850</v>
+        <v>878</v>
       </c>
       <c r="H6" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="I6" t="s">
-        <v>831</v>
-      </c>
-      <c r="J6">
+        <v>912</v>
+      </c>
+      <c r="J6" t="s">
+        <v>704</v>
+      </c>
+      <c r="K6" t="s">
+        <v>705</v>
+      </c>
+      <c r="L6" t="s">
+        <v>706</v>
+      </c>
+      <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="N6" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG6" s="1">
         <v>1996</v>
       </c>
-      <c r="AF6" s="3">
-        <v>201</v>
+      <c r="AH6" s="3">
+        <v>-97</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D7" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E7" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="F7" t="s">
-        <v>878</v>
-      </c>
-      <c r="G7" t="s">
-        <v>707</v>
+        <v>879</v>
       </c>
       <c r="H7" t="s">
+        <v>911</v>
+      </c>
+      <c r="I7" t="s">
+        <v>912</v>
+      </c>
+      <c r="J7" t="s">
+        <v>704</v>
+      </c>
+      <c r="K7" t="s">
         <v>705</v>
-      </c>
-      <c r="I7" t="s">
-        <v>708</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2.1</v>
       </c>
       <c r="L7" t="s">
         <v>706</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="AG7" s="1">
         <v>1996</v>
       </c>
-      <c r="AF7" s="3">
-        <v>121</v>
+      <c r="AH7" s="3">
+        <v>-129</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C8" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D8" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E8" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F8" t="s">
-        <v>878</v>
-      </c>
-      <c r="G8" t="s">
-        <v>767</v>
+        <v>876</v>
       </c>
       <c r="H8" t="s">
-        <v>705</v>
+        <v>911</v>
       </c>
       <c r="I8" t="s">
-        <v>708</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2.1</v>
+        <v>912</v>
+      </c>
+      <c r="J8" t="s">
+        <v>704</v>
       </c>
       <c r="K8" t="s">
-        <v>882</v>
+        <v>765</v>
       </c>
       <c r="L8" t="s">
         <v>706</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="M8" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>880</v>
+      </c>
+      <c r="AG8" s="1">
         <v>1996</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AH8" s="3">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C9" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E9" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="F9" t="s">
-        <v>878</v>
-      </c>
-      <c r="G9" t="s">
-        <v>847</v>
+        <v>877</v>
       </c>
       <c r="H9" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="I9" t="s">
-        <v>831</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
+        <v>912</v>
+      </c>
+      <c r="J9" t="s">
+        <v>704</v>
+      </c>
+      <c r="K9" t="s">
+        <v>765</v>
       </c>
       <c r="L9" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE9" s="1">
+        <v>706</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>880</v>
+      </c>
+      <c r="AG9" s="1">
         <v>1996</v>
       </c>
-      <c r="AF9" s="3">
-        <v>180</v>
+      <c r="AH9" s="3">
+        <v>-31</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D10" t="s">
         <v>878</v>
       </c>
       <c r="E10" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="F10" t="s">
         <v>878</v>
       </c>
-      <c r="G10" t="s">
-        <v>847</v>
-      </c>
       <c r="H10" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="I10" t="s">
-        <v>831</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
+        <v>912</v>
+      </c>
+      <c r="J10" t="s">
+        <v>704</v>
+      </c>
+      <c r="K10" t="s">
+        <v>765</v>
       </c>
       <c r="L10" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE10" s="1">
+        <v>706</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>880</v>
+      </c>
+      <c r="AG10" s="1">
         <v>1996</v>
       </c>
-      <c r="AF10" s="3">
-        <v>214</v>
+      <c r="AH10" s="3">
+        <v>-119</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D11" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E11" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="F11" t="s">
-        <v>892</v>
-      </c>
-      <c r="G11" t="s">
-        <v>847</v>
+        <v>879</v>
       </c>
       <c r="H11" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="I11" t="s">
-        <v>831</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
+        <v>912</v>
+      </c>
+      <c r="J11" t="s">
+        <v>704</v>
+      </c>
+      <c r="K11" t="s">
+        <v>765</v>
       </c>
       <c r="L11" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE11" s="1">
+        <v>706</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>880</v>
+      </c>
+      <c r="AG11" s="1">
         <v>1996</v>
       </c>
-      <c r="AF11" s="3">
-        <v>256</v>
+      <c r="AH11" s="3">
+        <v>-172</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D12" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E12" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="F12" t="s">
-        <v>892</v>
-      </c>
-      <c r="G12" t="s">
-        <v>707</v>
+        <v>875</v>
       </c>
       <c r="H12" t="s">
-        <v>785</v>
-      </c>
-      <c r="I12" t="s">
-        <v>788</v>
-      </c>
-      <c r="J12" s="1">
+        <v>911</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="L12" t="s">
+        <v>829</v>
+      </c>
+      <c r="M12">
         <v>0</v>
       </c>
-      <c r="K12" s="1">
-        <v>80</v>
-      </c>
-      <c r="L12" t="s">
-        <v>804</v>
-      </c>
-      <c r="AE12" s="1">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
         <v>1996</v>
       </c>
-      <c r="AF12" s="3">
-        <v>48</v>
+      <c r="AH12" s="3">
+        <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D13" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E13" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="F13" t="s">
-        <v>892</v>
-      </c>
-      <c r="G13" t="s">
-        <v>707</v>
+        <v>875</v>
       </c>
       <c r="H13" t="s">
-        <v>785</v>
-      </c>
-      <c r="I13" t="s">
-        <v>788</v>
-      </c>
-      <c r="J13" s="1">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
-        <v>882</v>
+        <v>911</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="L13" t="s">
-        <v>804</v>
-      </c>
-      <c r="AE13" s="1">
+        <v>829</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="1">
         <v>1996</v>
       </c>
-      <c r="AF13" s="3">
-        <v>130</v>
+      <c r="AH13" s="3">
+        <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D14" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="E14" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F14" t="s">
-        <v>879</v>
-      </c>
-      <c r="G14" t="s">
-        <v>847</v>
+        <v>875</v>
       </c>
       <c r="H14" t="s">
-        <v>818</v>
-      </c>
-      <c r="I14" t="s">
-        <v>831</v>
-      </c>
-      <c r="J14">
+        <v>911</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="L14" t="s">
+        <v>829</v>
+      </c>
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>1</v>
       </c>
-      <c r="L14" t="s">
-        <v>846</v>
-      </c>
-      <c r="AE14" s="1">
+      <c r="AG14" s="1">
         <v>1996</v>
       </c>
-      <c r="AF14" s="3">
-        <v>187</v>
+      <c r="AH14" s="3">
+        <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C15" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D15" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E15" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F15" t="s">
-        <v>879</v>
-      </c>
-      <c r="G15" t="s">
-        <v>707</v>
+        <v>876</v>
       </c>
       <c r="H15" t="s">
-        <v>705</v>
-      </c>
-      <c r="I15" t="s">
-        <v>708</v>
-      </c>
-      <c r="J15" s="1">
+        <v>911</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="L15" t="s">
+        <v>829</v>
+      </c>
+      <c r="M15">
         <v>0</v>
       </c>
-      <c r="K15" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="L15" t="s">
-        <v>706</v>
-      </c>
-      <c r="AE15" s="1">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="1">
         <v>1996</v>
       </c>
-      <c r="AF15" s="3">
-        <v>25</v>
+      <c r="AH15" s="3">
+        <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C16" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D16" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E16" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="F16" t="s">
-        <v>879</v>
-      </c>
-      <c r="G16" t="s">
-        <v>767</v>
+        <v>876</v>
       </c>
       <c r="H16" t="s">
-        <v>705</v>
-      </c>
-      <c r="I16" t="s">
-        <v>708</v>
-      </c>
-      <c r="J16" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>882</v>
+        <v>911</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="L16" t="s">
-        <v>706</v>
-      </c>
-      <c r="AE16" s="1">
+        <v>829</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="1">
         <v>1996</v>
       </c>
-      <c r="AF16" s="3">
-        <v>-31</v>
+      <c r="AH16" s="3">
+        <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C17" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D17" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="E17" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="F17" t="s">
-        <v>880</v>
-      </c>
-      <c r="G17" t="s">
-        <v>707</v>
+        <v>890</v>
       </c>
       <c r="H17" t="s">
-        <v>705</v>
-      </c>
-      <c r="I17" t="s">
-        <v>708</v>
-      </c>
-      <c r="J17" s="1">
+        <v>911</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="L17" t="s">
+        <v>829</v>
+      </c>
+      <c r="M17">
         <v>0</v>
       </c>
-      <c r="K17" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>706</v>
-      </c>
-      <c r="AE17" s="1">
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="1">
         <v>1996</v>
       </c>
-      <c r="AF17" s="3">
-        <v>-97</v>
+      <c r="AH17" s="3">
+        <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C18" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D18" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E18" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="F18" t="s">
-        <v>880</v>
-      </c>
-      <c r="G18" t="s">
-        <v>767</v>
+        <v>877</v>
       </c>
       <c r="H18" t="s">
-        <v>705</v>
-      </c>
-      <c r="I18" t="s">
-        <v>708</v>
-      </c>
-      <c r="J18" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>882</v>
+        <v>911</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>845</v>
       </c>
       <c r="L18" t="s">
-        <v>706</v>
-      </c>
-      <c r="AE18" s="1">
+        <v>829</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="1">
         <v>1996</v>
       </c>
-      <c r="AF18" s="3">
-        <v>-119</v>
+      <c r="AH18" s="3">
+        <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C19" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D19" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E19" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="F19" t="s">
-        <v>881</v>
-      </c>
-      <c r="G19" t="s">
-        <v>707</v>
+        <v>890</v>
       </c>
       <c r="H19" t="s">
-        <v>705</v>
+        <v>911</v>
       </c>
       <c r="I19" t="s">
-        <v>708</v>
-      </c>
-      <c r="J19" s="1">
+        <v>914</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="L19" t="s">
+        <v>786</v>
+      </c>
+      <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>706</v>
-      </c>
-      <c r="AE19" s="1">
+      <c r="N19" s="1">
+        <v>80</v>
+      </c>
+      <c r="AG19" s="1">
         <v>1996</v>
       </c>
-      <c r="AF19" s="3">
-        <v>-129</v>
+      <c r="AH19" s="3">
+        <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C20" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D20" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E20" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="F20" t="s">
-        <v>881</v>
-      </c>
-      <c r="G20" t="s">
-        <v>767</v>
+        <v>890</v>
       </c>
       <c r="H20" t="s">
-        <v>705</v>
+        <v>911</v>
       </c>
       <c r="I20" t="s">
-        <v>708</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2.1</v>
+        <v>914</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>802</v>
       </c>
       <c r="K20" t="s">
-        <v>882</v>
+        <v>690</v>
       </c>
       <c r="L20" t="s">
-        <v>706</v>
-      </c>
-      <c r="AE20" s="1">
+        <v>786</v>
+      </c>
+      <c r="M20" s="1">
+        <v>80</v>
+      </c>
+      <c r="N20" t="s">
+        <v>880</v>
+      </c>
+      <c r="AG20" s="1">
         <v>1996</v>
       </c>
-      <c r="AF20" s="3">
-        <v>-172</v>
+      <c r="AH20" s="3">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7200,14 +7306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7224,82 +7330,82 @@
         <v>479</v>
       </c>
       <c r="F1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H1" t="s">
         <v>579</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>580</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>581</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>582</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>583</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>584</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>585</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>586</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>587</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>588</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>589</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>590</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>591</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>592</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>593</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>594</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>595</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>596</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>597</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>598</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>599</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>600</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>601</v>
       </c>
-      <c r="AC1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>603</v>
-      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -7307,16 +7413,16 @@
         <v>57</v>
       </c>
       <c r="C2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E2" t="s">
         <v>604</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>605</v>
-      </c>
-      <c r="E2" t="s">
-        <v>606</v>
-      </c>
-      <c r="F2" t="s">
-        <v>607</v>
       </c>
       <c r="G2" t="s">
         <v>337</v>
@@ -7331,28 +7437,28 @@
         <v>196</v>
       </c>
       <c r="K2" t="s">
+        <v>606</v>
+      </c>
+      <c r="N2" t="s">
+        <v>607</v>
+      </c>
+      <c r="O2" t="s">
         <v>608</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>609</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>610</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>611</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>612</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>613</v>
-      </c>
-      <c r="T2" t="s">
-        <v>614</v>
-      </c>
-      <c r="U2" t="s">
-        <v>615</v>
       </c>
       <c r="V2" t="s">
         <v>215</v>
@@ -7364,25 +7470,25 @@
         <v>217</v>
       </c>
       <c r="Y2" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA2" t="s">
         <v>616</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>617</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AC2" t="s">
         <v>618</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>619</v>
       </c>
-      <c r="AC2" t="s">
-        <v>620</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>621</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -7399,13 +7505,13 @@
         <v>478</v>
       </c>
       <c r="L3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M3" t="s">
         <v>137</v>
       </c>
       <c r="P3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="Q3" t="s">
         <v>141</v>
@@ -7441,150 +7547,150 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AR21"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" t="s">
         <v>624</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>625</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>626</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>627</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>628</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>629</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>630</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>631</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>632</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>633</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>634</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>635</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>636</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>637</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>638</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>639</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>640</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>641</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>642</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>643</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>644</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>645</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>646</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>647</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>648</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>649</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>650</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>651</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>652</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>653</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>654</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>655</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>656</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>657</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>658</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>659</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>660</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>661</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>662</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>663</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>664</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>665</v>
       </c>
-      <c r="AQ1" t="s">
-        <v>666</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>667</v>
-      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -7664,7 +7770,7 @@
         <v>247</v>
       </c>
       <c r="AA2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AB2" t="s">
         <v>440</v>
@@ -7682,22 +7788,22 @@
         <v>449</v>
       </c>
       <c r="AG2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AH2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AI2" t="s">
+        <v>583</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>585</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>587</v>
       </c>
-      <c r="AK2" t="s">
-        <v>589</v>
-      </c>
       <c r="AL2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AM2" t="s">
         <v>482</v>
@@ -7718,729 +7824,729 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H3" t="s">
+        <v>669</v>
+      </c>
+      <c r="I3" t="s">
         <v>670</v>
       </c>
-      <c r="H3" t="s">
-        <v>671</v>
-      </c>
-      <c r="I3" t="s">
-        <v>672</v>
-      </c>
       <c r="U3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AM3" t="s">
         <v>548</v>
       </c>
       <c r="AO3" t="s">
+        <v>671</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>673</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="B4" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
         <v>675</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>676</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>677</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>678</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>679</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>680</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>681</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>682</v>
-      </c>
-      <c r="I4" t="s">
-        <v>683</v>
-      </c>
-      <c r="J4" t="s">
-        <v>684</v>
       </c>
       <c r="K4" t="s">
         <v>154</v>
       </c>
       <c r="L4" t="s">
+        <v>683</v>
+      </c>
+      <c r="M4" t="s">
+        <v>684</v>
+      </c>
+      <c r="N4" t="s">
         <v>685</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>686</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>687</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>688</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
+        <v>675</v>
+      </c>
+      <c r="S4" t="s">
+        <v>675</v>
+      </c>
+      <c r="T4" t="s">
         <v>689</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>690</v>
       </c>
-      <c r="R4" t="s">
-        <v>677</v>
-      </c>
-      <c r="S4" t="s">
-        <v>677</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>691</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>692</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
+        <v>675</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z4" t="s">
         <v>693</v>
       </c>
-      <c r="W4" t="s">
+      <c r="AA4" t="s">
         <v>694</v>
       </c>
-      <c r="X4" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>677</v>
-      </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>695</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AD4" t="s">
         <v>696</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF4" t="s">
         <v>697</v>
       </c>
-      <c r="AC4" t="s">
-        <v>686</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AG4" t="s">
         <v>698</v>
       </c>
-      <c r="AE4" t="s">
-        <v>689</v>
-      </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI4" t="s">
         <v>699</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>700</v>
       </c>
-      <c r="AH4" t="s">
-        <v>687</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AK4" t="s">
         <v>701</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>702</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AM4" t="s">
         <v>703</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AN4" t="s">
         <v>704</v>
       </c>
-      <c r="AM4" t="s">
+      <c r="AO4" t="s">
         <v>705</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AP4" t="s">
         <v>706</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AQ4" t="s">
+        <v>675</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>707</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="B5" t="s">
         <v>708</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>677</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>694</v>
+      <c r="D5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F5" t="s">
+        <v>711</v>
+      </c>
+      <c r="G5" t="s">
+        <v>712</v>
+      </c>
+      <c r="H5" t="s">
+        <v>713</v>
+      </c>
+      <c r="I5" t="s">
+        <v>714</v>
+      </c>
+      <c r="J5" t="s">
+        <v>715</v>
+      </c>
+      <c r="K5" t="s">
+        <v>716</v>
+      </c>
+      <c r="L5" t="s">
+        <v>717</v>
+      </c>
+      <c r="M5" t="s">
+        <v>718</v>
+      </c>
+      <c r="N5" t="s">
+        <v>719</v>
+      </c>
+      <c r="O5" t="s">
+        <v>720</v>
+      </c>
+      <c r="P5" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>722</v>
+      </c>
+      <c r="T5" t="s">
+        <v>723</v>
+      </c>
+      <c r="U5" t="s">
+        <v>724</v>
+      </c>
+      <c r="V5" t="s">
+        <v>725</v>
+      </c>
+      <c r="W5" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>721</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>730</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>731</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>719</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>732</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>733</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>734</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>735</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>736</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>737</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>739</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B5" t="s">
-        <v>710</v>
-      </c>
-      <c r="D5" t="s">
-        <v>711</v>
-      </c>
-      <c r="E5" t="s">
-        <v>712</v>
-      </c>
-      <c r="F5" t="s">
-        <v>713</v>
-      </c>
-      <c r="G5" t="s">
-        <v>714</v>
-      </c>
-      <c r="H5" t="s">
-        <v>715</v>
-      </c>
-      <c r="I5" t="s">
-        <v>716</v>
-      </c>
-      <c r="J5" t="s">
-        <v>717</v>
-      </c>
-      <c r="K5" t="s">
-        <v>718</v>
-      </c>
-      <c r="L5" t="s">
-        <v>719</v>
-      </c>
-      <c r="M5" t="s">
-        <v>720</v>
-      </c>
-      <c r="N5" t="s">
-        <v>721</v>
-      </c>
-      <c r="O5" t="s">
-        <v>722</v>
-      </c>
-      <c r="P5" t="s">
-        <v>723</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>724</v>
-      </c>
-      <c r="T5" t="s">
-        <v>725</v>
-      </c>
-      <c r="U5" t="s">
-        <v>726</v>
-      </c>
-      <c r="V5" t="s">
-        <v>727</v>
-      </c>
-      <c r="W5" t="s">
-        <v>728</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>729</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>730</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>720</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>731</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>723</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>732</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>733</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>721</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>734</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>735</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>736</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>737</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>738</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>739</v>
-      </c>
-      <c r="AO5" t="s">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>740</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="B6" t="s">
         <v>741</v>
       </c>
-      <c r="AR5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" t="s">
         <v>742</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>743</v>
-      </c>
-      <c r="D6" t="s">
-        <v>744</v>
-      </c>
-      <c r="E6" t="s">
-        <v>745</v>
       </c>
       <c r="F6" t="s">
         <v>157</v>
       </c>
       <c r="G6" t="s">
+        <v>744</v>
+      </c>
+      <c r="H6" t="s">
+        <v>745</v>
+      </c>
+      <c r="I6" t="s">
         <v>746</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>747</v>
       </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>748</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
         <v>749</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>750</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>751</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>752</v>
-      </c>
-      <c r="O6" t="s">
-        <v>753</v>
-      </c>
-      <c r="P6" t="s">
-        <v>754</v>
       </c>
       <c r="Q6" t="s">
         <v>478</v>
       </c>
       <c r="T6" t="s">
+        <v>753</v>
+      </c>
+      <c r="U6" t="s">
+        <v>754</v>
+      </c>
+      <c r="V6" t="s">
         <v>755</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>756</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AA6" t="s">
         <v>757</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AB6" t="s">
         <v>758</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>752</v>
+      </c>
+      <c r="AF6" t="s">
         <v>759</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AG6" t="s">
         <v>760</v>
       </c>
-      <c r="AC6" t="s">
-        <v>751</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>754</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>761</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>762</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" t="s">
+        <v>743</v>
+      </c>
+      <c r="AM6" t="s">
         <v>763</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AN6" t="s">
         <v>764</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>745</v>
-      </c>
-      <c r="AM6" t="s">
+      <c r="AO6" t="s">
         <v>765</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>766</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>767</v>
       </c>
       <c r="AP6" t="s">
         <v>36</v>
       </c>
       <c r="AR6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>766</v>
+      </c>
+      <c r="B7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F7" t="s">
         <v>768</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>769</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>770</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>771</v>
       </c>
-      <c r="H7" t="s">
+      <c r="L7" t="s">
         <v>772</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>773</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>774</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>775</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T7" t="s">
         <v>776</v>
       </c>
-      <c r="P7" t="s">
+      <c r="U7" t="s">
         <v>777</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>778</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>779</v>
       </c>
-      <c r="V7" t="s">
+      <c r="AC7" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>775</v>
+      </c>
+      <c r="AF7" t="s">
         <v>780</v>
       </c>
-      <c r="W7" t="s">
+      <c r="AG7" t="s">
         <v>781</v>
       </c>
-      <c r="AC7" t="s">
-        <v>775</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>777</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AI7" t="s">
         <v>782</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AM7" t="s">
         <v>783</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AN7" t="s">
         <v>784</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>785</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AP7" t="s">
         <v>786</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AR7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>787</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="B8" t="s">
         <v>788</v>
       </c>
-      <c r="AR7" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
         <v>789</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>790</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>791</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J8" t="s">
         <v>792</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>793</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>794</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>795</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>796</v>
       </c>
-      <c r="N8" t="s">
+      <c r="T8" t="s">
         <v>797</v>
       </c>
-      <c r="P8" t="s">
+      <c r="U8" t="s">
         <v>798</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>799</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
+        <v>743</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>794</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>796</v>
+      </c>
+      <c r="AG8" t="s">
         <v>800</v>
       </c>
-      <c r="V8" t="s">
+      <c r="AM8" t="s">
         <v>801</v>
       </c>
-      <c r="W8" t="s">
-        <v>745</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>796</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>798</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AN8" t="s">
         <v>802</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AO8" t="s">
         <v>803</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>804</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>805</v>
       </c>
       <c r="AP8" t="s">
         <v>478</v>
       </c>
       <c r="AR8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>804</v>
+      </c>
+      <c r="B9" t="s">
+        <v>805</v>
+      </c>
+      <c r="F9" t="s">
         <v>806</v>
       </c>
-      <c r="B9" t="s">
+      <c r="G9" t="s">
         <v>807</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>808</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>809</v>
       </c>
-      <c r="H9" t="s">
+      <c r="L9" t="s">
         <v>810</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="s">
         <v>811</v>
       </c>
-      <c r="L9" t="s">
+      <c r="P9" t="s">
         <v>812</v>
       </c>
-      <c r="M9" t="s">
+      <c r="T9" t="s">
         <v>813</v>
       </c>
-      <c r="P9" t="s">
+      <c r="U9" t="s">
         <v>814</v>
       </c>
-      <c r="T9" t="s">
+      <c r="AE9" t="s">
         <v>815</v>
       </c>
-      <c r="U9" t="s">
+      <c r="AG9" t="s">
+        <v>811</v>
+      </c>
+      <c r="AM9" t="s">
         <v>816</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AN9" t="s">
         <v>817</v>
       </c>
-      <c r="AG9" t="s">
-        <v>813</v>
-      </c>
-      <c r="AM9" t="s">
+      <c r="AO9" t="s">
         <v>818</v>
       </c>
-      <c r="AN9" t="s">
+      <c r="AP9" t="s">
         <v>819</v>
       </c>
-      <c r="AO9" t="s">
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>820</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="B10" t="s">
         <v>821</v>
       </c>
+      <c r="F10" t="s">
+        <v>822</v>
+      </c>
+      <c r="G10" t="s">
+        <v>823</v>
+      </c>
+      <c r="H10" t="s">
+        <v>824</v>
+      </c>
+      <c r="U10" t="s">
+        <v>825</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>826</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>827</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>828</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>829</v>
+      </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>822</v>
-      </c>
-      <c r="B10" t="s">
-        <v>823</v>
-      </c>
-      <c r="F10" t="s">
-        <v>824</v>
-      </c>
-      <c r="G10" t="s">
-        <v>825</v>
-      </c>
-      <c r="H10" t="s">
-        <v>826</v>
-      </c>
-      <c r="U10" t="s">
-        <v>827</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>828</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>829</v>
-      </c>
-      <c r="AO10" t="s">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>830</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="F11" t="s">
         <v>831</v>
       </c>
+      <c r="H11" t="s">
+        <v>832</v>
+      </c>
+      <c r="U11" t="s">
+        <v>833</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>834</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>835</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>835</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>836</v>
+      </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>832</v>
-      </c>
-      <c r="F11" t="s">
-        <v>833</v>
-      </c>
-      <c r="H11" t="s">
-        <v>834</v>
-      </c>
-      <c r="U11" t="s">
-        <v>835</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>836</v>
-      </c>
-      <c r="AN11" t="s">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
         <v>837</v>
       </c>
-      <c r="AO11" t="s">
-        <v>837</v>
-      </c>
-      <c r="AP11" t="s">
+      <c r="U12" t="s">
         <v>838</v>
       </c>
+      <c r="AM12" t="s">
+        <v>839</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>840</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>841</v>
+      </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>839</v>
-      </c>
-      <c r="U12" t="s">
-        <v>840</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>841</v>
-      </c>
-      <c r="AN12" t="s">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
         <v>842</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AM13" t="s">
         <v>843</v>
       </c>
+      <c r="AN13" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="U13" t="s">
-        <v>844</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>845</v>
-      </c>
-      <c r="AN13" t="s">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
         <v>846</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AN14" t="s">
         <v>847</v>
       </c>
+      <c r="AO14" t="s">
+        <v>848</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="U14" t="s">
-        <v>848</v>
-      </c>
-      <c r="AN14" t="s">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
         <v>849</v>
       </c>
-      <c r="AO14" t="s">
+      <c r="AN15" t="s">
         <v>850</v>
       </c>
+      <c r="AO15" t="s">
+        <v>851</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="U15" t="s">
-        <v>851</v>
-      </c>
-      <c r="AN15" t="s">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
         <v>852</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AN16" t="s">
         <v>853</v>
       </c>
+      <c r="AO16" t="s">
+        <v>854</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="U16" t="s">
-        <v>854</v>
-      </c>
-      <c r="AN16" t="s">
+    <row r="17" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN17" t="s">
         <v>855</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AO17" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="17" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN17" t="s">
+    <row r="18" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN18" t="s">
         <v>857</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AO18" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="18" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN18" t="s">
+    <row r="19" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN19" t="s">
         <v>859</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AO19" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="19" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN19" t="s">
+    <row r="20" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN20" t="s">
         <v>861</v>
       </c>
-      <c r="AO19" t="s">
+      <c r="AO20" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="20" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN20" t="s">
+    <row r="21" spans="40:41" x14ac:dyDescent="0.2">
+      <c r="AN21" t="s">
         <v>863</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="21" spans="40:41" x14ac:dyDescent="0.25">
-      <c r="AN21" t="s">
-        <v>865</v>
       </c>
     </row>
   </sheetData>
